--- a/Histogram.xlsx
+++ b/Histogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/427032252dc5907a/Engineering Course/Year 4/4YP Lingxi Tang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DAD38941-0B34-4854-B394-370F5E759F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{639BA3E4-380A-4D6B-AFFF-1BA24D4F4CC4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DAD38941-0B34-4854-B394-370F5E759F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB982CA-9AEE-4B39-911E-D2E133799EFE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A57D761-1498-4322-A190-95BF8C4EDA01}"/>
   </bookViews>
@@ -18,6 +18,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -181,7 +183,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
+        <cx:catScaling gapWidth="1.29999995"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -204,7 +206,7 @@
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>Range of data point value</a:t>
@@ -259,7 +261,7 @@
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Calibri (Body)"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>Freqneucy</a:t>
@@ -1232,7 +1234,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
